--- a/data/CS1/market data/cs1_market_data_base.xlsx
+++ b/data/CS1/market data/cs1_market_data_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED197A-0E96-4F52-AC60-9C6F152AE43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2E657-54B9-44F0-89E7-088A921E3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -438,17 +438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B42D3D-D37A-4056-8A81-15E52DBED91C}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -467,7 +467,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -475,7 +475,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -483,7 +483,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -499,7 +499,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -517,14 +517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D68773-C08B-4409-9DD6-C9F8E319B25A}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -678,7 +678,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -755,7 +755,7 @@
         <v>16.020411438107772</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -832,7 +832,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -909,7 +909,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -986,7 +986,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1013,7 +1013,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1053,12 +1053,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>160.20411438107772</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>16.020411438107772</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>176.22452581918552</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>144.18370294296994</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1547,7 +1547,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/data/CS1/market data/cs1_market_data_base.xlsx
+++ b/data/CS1/market data/cs1_market_data_base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46605BBE-21D0-42BA-9FFB-3D1AFFD384FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EED3-7926-4709-B1DB-F288170EDE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
